--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RocketHcgs\Desktop\毕设\程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26DE25-A8B1-477B-B17F-43DBC7ABED9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D683862-6142-46F6-83E7-18AF81EFBCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>点名</t>
   </si>
@@ -43,12 +43,57 @@
     <t>备注</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>拟合点</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>拟合点</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
@@ -58,9 +103,6 @@
     <t>A11</t>
   </si>
   <si>
-    <t>A15</t>
-  </si>
-  <si>
     <t>A17</t>
   </si>
   <si>
@@ -74,48 +116,6 @@
   </si>
   <si>
     <t>A24</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A25</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -525,19 +525,19 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>26079.452000000001</v>
+        <v>18919.063999999998</v>
       </c>
       <c r="C2" s="2">
-        <v>45417.606</v>
+        <v>45477.493000000002</v>
       </c>
       <c r="D2" s="2">
-        <v>45.754100000000001</v>
+        <v>44.275599999999997</v>
       </c>
       <c r="E2" s="2">
-        <v>58.049700000000001</v>
+        <v>56.585700000000003</v>
       </c>
       <c r="F2" s="2">
-        <v>12.2956</v>
+        <v>12.310100000000009</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -558,19 +558,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>26306.937000000002</v>
+        <v>21948.205999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>41029.061000000002</v>
+        <v>44145.273999999998</v>
       </c>
       <c r="D3" s="2">
-        <v>36.785600000000002</v>
+        <v>53.642499999999998</v>
       </c>
       <c r="E3" s="2">
-        <v>49.106900000000003</v>
+        <v>65.917900000000003</v>
       </c>
       <c r="F3" s="2">
-        <v>12.321300000000001</v>
+        <v>12.275399999999999</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -591,19 +591,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>28424.814999999999</v>
+        <v>27095.771000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>37219.915999999997</v>
+        <v>49661.438999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>39.979500000000002</v>
+        <v>29.450500000000002</v>
       </c>
       <c r="E4" s="2">
-        <v>52.260800000000003</v>
+        <v>41.741900000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>12.2813</v>
+        <v>12.291399999999999</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
@@ -624,19 +624,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>28937.982</v>
+        <v>25975.120999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>42910.631000000001</v>
+        <v>42769.161</v>
       </c>
       <c r="D5" s="2">
-        <v>35.054699999999997</v>
+        <v>36.426299999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>47.3626</v>
+        <v>48.732700000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>12.3079</v>
+        <v>12.3064</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -657,19 +657,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>31445.964</v>
+        <v>28106.665000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>41484.824999999997</v>
+        <v>41090.281000000003</v>
       </c>
       <c r="D6" s="2">
-        <v>43.1004</v>
+        <v>34.333799999999997</v>
       </c>
       <c r="E6" s="2">
-        <v>55.416200000000003</v>
+        <v>46.646299999999997</v>
       </c>
       <c r="F6" s="2">
-        <v>12.315799999999999</v>
+        <v>12.3125</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -690,19 +690,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>34935.048000000003</v>
+        <v>27646.723000000002</v>
       </c>
       <c r="C7" s="2">
-        <v>43687.625999999997</v>
+        <v>33978.788999999997</v>
       </c>
       <c r="D7" s="2">
-        <v>32.111600000000003</v>
+        <v>34.004800000000003</v>
       </c>
       <c r="E7" s="2">
-        <v>44.404800000000002</v>
+        <v>46.319000000000003</v>
       </c>
       <c r="F7" s="2">
-        <v>12.293200000000001</v>
+        <v>12.3142</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -723,19 +723,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>32319.042000000001</v>
+        <v>29423.251</v>
       </c>
       <c r="C8" s="2">
-        <v>38451.231</v>
+        <v>39409.858</v>
       </c>
       <c r="D8" s="2">
-        <v>34.722700000000003</v>
+        <v>37.523699999999998</v>
       </c>
       <c r="E8" s="2">
-        <v>47.012999999999998</v>
+        <v>49.807299999999998</v>
       </c>
       <c r="F8" s="2">
-        <v>12.29029999999999</v>
+        <v>12.2836</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -756,19 +756,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>38832.743999999999</v>
+        <v>30686.223999999998</v>
       </c>
       <c r="C9" s="2">
-        <v>39945.500999999997</v>
+        <v>49840.063000000002</v>
       </c>
       <c r="D9" s="2">
-        <v>32.164099999999998</v>
+        <v>29.042899999999999</v>
       </c>
       <c r="E9" s="2">
-        <v>44.4754</v>
+        <v>41.340200000000003</v>
       </c>
       <c r="F9" s="2">
-        <v>12.311299999999999</v>
+        <v>12.2973</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -789,19 +789,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>43331.978999999999</v>
+        <v>33901.317000000003</v>
       </c>
       <c r="C10" s="2">
-        <v>40109.976999999999</v>
+        <v>49152.110999999997</v>
       </c>
       <c r="D10" s="2">
-        <v>45.191499999999998</v>
+        <v>30.8354</v>
       </c>
       <c r="E10" s="2">
-        <v>57.503799999999998</v>
+        <v>43.155700000000003</v>
       </c>
       <c r="F10" s="2">
-        <v>12.3123</v>
+        <v>12.3203</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
@@ -822,19 +822,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>42148.942999999999</v>
+        <v>36904.521000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>42738.163</v>
+        <v>50767.620999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>44.430999999999997</v>
+        <v>29.114599999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>56.753500000000003</v>
+        <v>41.398099999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>12.32250000000001</v>
+        <v>12.2835</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
@@ -855,19 +855,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>18919.063999999998</v>
+        <v>31445.964</v>
       </c>
       <c r="C12" s="2">
-        <v>45477.493000000002</v>
+        <v>41484.824999999997</v>
       </c>
       <c r="D12" s="2">
-        <v>44.275599999999997</v>
+        <v>43.1004</v>
       </c>
       <c r="E12" s="2">
-        <v>56.585700000000003</v>
+        <v>55.416200000000003</v>
       </c>
       <c r="F12" s="2">
-        <v>12.310100000000009</v>
+        <v>12.315799999999999</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -876,19 +879,22 @@
         <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>21948.205999999998</v>
+        <v>33848.998</v>
       </c>
       <c r="C13" s="2">
-        <v>44145.273999999998</v>
+        <v>40331.055999999997</v>
       </c>
       <c r="D13" s="2">
-        <v>53.642499999999998</v>
+        <v>33.246600000000001</v>
       </c>
       <c r="E13" s="2">
-        <v>65.917900000000003</v>
+        <v>45.553100000000001</v>
       </c>
       <c r="F13" s="2">
-        <v>12.275399999999999</v>
+        <v>12.3065</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -897,19 +903,22 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>27095.771000000001</v>
+        <v>38688.311999999998</v>
       </c>
       <c r="C14" s="2">
-        <v>49661.438999999998</v>
+        <v>44311.845999999998</v>
       </c>
       <c r="D14" s="2">
-        <v>29.450500000000002</v>
+        <v>38.625999999999998</v>
       </c>
       <c r="E14" s="2">
-        <v>41.741900000000001</v>
+        <v>50.922600000000003</v>
       </c>
       <c r="F14" s="2">
-        <v>12.291399999999999</v>
+        <v>12.29660000000001</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" s="2"/>
@@ -920,19 +929,22 @@
         <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>25975.120999999999</v>
+        <v>39297.031999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>42769.161</v>
+        <v>36901.044000000002</v>
       </c>
       <c r="D15" s="2">
-        <v>36.426299999999998</v>
+        <v>47.877699999999997</v>
       </c>
       <c r="E15" s="2">
-        <v>48.732700000000001</v>
+        <v>60.179099999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>12.3064</v>
+        <v>12.301399999999999</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="2"/>
       <c r="K15" s="2"/>
@@ -943,19 +955,22 @@
         <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>28106.665000000001</v>
+        <v>46425.466999999997</v>
       </c>
       <c r="C16" s="2">
-        <v>41090.281000000003</v>
+        <v>42537.748</v>
       </c>
       <c r="D16" s="2">
-        <v>34.333799999999997</v>
+        <v>50.550400000000003</v>
       </c>
       <c r="E16" s="2">
-        <v>46.646299999999997</v>
+        <v>62.842700000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>12.3125</v>
+        <v>12.292299999999999</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="I16" s="2"/>
       <c r="K16" s="2"/>
@@ -966,19 +981,19 @@
         <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>27646.723000000002</v>
+        <v>26079.452000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>33978.788999999997</v>
+        <v>45417.606</v>
       </c>
       <c r="D17" s="2">
-        <v>34.004800000000003</v>
+        <v>45.754100000000001</v>
       </c>
       <c r="E17" s="2">
-        <v>46.319000000000003</v>
+        <v>58.049700000000001</v>
       </c>
       <c r="F17" s="2">
-        <v>12.3142</v>
+        <v>12.2956</v>
       </c>
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
@@ -989,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>29423.251</v>
+        <v>26306.937000000002</v>
       </c>
       <c r="C18" s="2">
-        <v>39409.858</v>
+        <v>41029.061000000002</v>
       </c>
       <c r="D18" s="2">
-        <v>37.523699999999998</v>
+        <v>36.785600000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>49.807299999999998</v>
+        <v>49.106900000000003</v>
       </c>
       <c r="F18" s="2">
-        <v>12.2836</v>
+        <v>12.321300000000001</v>
       </c>
       <c r="I18" s="2"/>
       <c r="K18" s="2"/>
@@ -1012,19 +1027,19 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>30686.223999999998</v>
+        <v>28424.814999999999</v>
       </c>
       <c r="C19" s="2">
-        <v>49840.063000000002</v>
+        <v>37219.915999999997</v>
       </c>
       <c r="D19" s="2">
-        <v>29.042899999999999</v>
+        <v>39.979500000000002</v>
       </c>
       <c r="E19" s="2">
-        <v>41.340200000000003</v>
+        <v>52.260800000000003</v>
       </c>
       <c r="F19" s="2">
-        <v>12.2973</v>
+        <v>12.2813</v>
       </c>
       <c r="I19" s="2"/>
       <c r="K19" s="2"/>
@@ -1035,19 +1050,19 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>33901.317000000003</v>
+        <v>28937.982</v>
       </c>
       <c r="C20" s="2">
-        <v>49152.110999999997</v>
+        <v>42910.631000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>30.8354</v>
+        <v>35.054699999999997</v>
       </c>
       <c r="E20" s="2">
-        <v>43.155700000000003</v>
+        <v>47.3626</v>
       </c>
       <c r="F20" s="2">
-        <v>12.3203</v>
+        <v>12.3079</v>
       </c>
       <c r="I20" s="2"/>
       <c r="K20" s="2"/>
@@ -1058,19 +1073,19 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>36904.521000000001</v>
+        <v>34935.048000000003</v>
       </c>
       <c r="C21" s="2">
-        <v>50767.620999999999</v>
+        <v>43687.625999999997</v>
       </c>
       <c r="D21" s="2">
-        <v>29.114599999999999</v>
+        <v>32.111600000000003</v>
       </c>
       <c r="E21" s="2">
-        <v>41.398099999999999</v>
+        <v>44.404800000000002</v>
       </c>
       <c r="F21" s="2">
-        <v>12.2835</v>
+        <v>12.293200000000001</v>
       </c>
       <c r="I21" s="2"/>
       <c r="K21" s="2"/>
@@ -1081,19 +1096,19 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>33848.998</v>
+        <v>32319.042000000001</v>
       </c>
       <c r="C22" s="2">
-        <v>40331.055999999997</v>
+        <v>38451.231</v>
       </c>
       <c r="D22" s="2">
-        <v>33.246600000000001</v>
+        <v>34.722700000000003</v>
       </c>
       <c r="E22" s="2">
-        <v>45.553100000000001</v>
+        <v>47.012999999999998</v>
       </c>
       <c r="F22" s="2">
-        <v>12.3065</v>
+        <v>12.29029999999999</v>
       </c>
       <c r="I22" s="2"/>
       <c r="K22" s="2"/>
@@ -1104,19 +1119,19 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>38688.311999999998</v>
+        <v>38832.743999999999</v>
       </c>
       <c r="C23" s="2">
-        <v>44311.845999999998</v>
+        <v>39945.500999999997</v>
       </c>
       <c r="D23" s="2">
-        <v>38.625999999999998</v>
+        <v>32.164099999999998</v>
       </c>
       <c r="E23" s="2">
-        <v>50.922600000000003</v>
+        <v>44.4754</v>
       </c>
       <c r="F23" s="2">
-        <v>12.29660000000001</v>
+        <v>12.311299999999999</v>
       </c>
       <c r="I23" s="2"/>
       <c r="K23" s="2"/>
@@ -1127,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>39297.031999999999</v>
+        <v>43331.978999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>36901.044000000002</v>
+        <v>40109.976999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>47.877699999999997</v>
+        <v>45.191499999999998</v>
       </c>
       <c r="E24" s="2">
-        <v>60.179099999999998</v>
+        <v>57.503799999999998</v>
       </c>
       <c r="F24" s="2">
-        <v>12.301399999999999</v>
+        <v>12.3123</v>
       </c>
       <c r="I24" s="2"/>
       <c r="K24" s="2"/>
@@ -1150,19 +1165,19 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>46425.466999999997</v>
+        <v>42148.942999999999</v>
       </c>
       <c r="C25" s="2">
-        <v>42537.748</v>
+        <v>42738.163</v>
       </c>
       <c r="D25" s="2">
-        <v>50.550400000000003</v>
+        <v>44.430999999999997</v>
       </c>
       <c r="E25" s="2">
-        <v>62.842700000000001</v>
+        <v>56.753500000000003</v>
       </c>
       <c r="F25" s="2">
-        <v>12.292299999999999</v>
+        <v>12.32250000000001</v>
       </c>
       <c r="I25" s="2"/>
       <c r="K25" s="2"/>
@@ -1182,61 +1197,71 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="2"/>
       <c r="I30" s="2"/>
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
       <c r="I31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
       <c r="I32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
       <c r="I33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
       <c r="I34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
       <c r="I35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
       <c r="I36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
       <c r="I37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
       <c r="I38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:11" x14ac:dyDescent="0.25">
       <c r="I43" s="2"/>
       <c r="K43" s="2"/>
     </row>
